--- a/Nomor 1_Perbaikan.xlsx
+++ b/Nomor 1_Perbaikan.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrian\Downloads\PreScreen_r3_pw - 1234\Jawab\Data-Scientist_Andrian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50BE607B-4BEC-40C5-99F1-982BD4EFE09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{3492817B-11BA-42A2-A720-0F76F96A0796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ingredient" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">ingredient!$C$2:$C$215</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ingredient!$C$2:$C$215</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">ingredient!$C$2:$C$215</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -711,7 +706,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1059,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1189,6 +1184,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1234,19 +1242,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2914,11 +2925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2933,31 +2944,31 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2965,31 +2976,31 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.51735</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>13.02</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>3.54</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1.69</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>72.73</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0.54</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>8.44</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2997,31 +3008,31 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.53125</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>10.73</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>2.1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>69.81</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>13.3</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>3.15</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -3029,31 +3040,31 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.5229999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>13.31</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>3.58</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.82</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>71.989999999999995</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.12</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>10.17</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>0.03</v>
       </c>
     </row>
@@ -3061,31 +3072,31 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1.5176799999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>12.56</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>3.52</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1.43</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>73.150000000000006</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>8.5399999999999991</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3093,31 +3104,31 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1.51813</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>13.43</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>3.98</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>1.18</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>72.489999999999995</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>8.15</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3125,31 +3136,31 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1.5172099999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>12.87</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>3.48</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1.33</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>73.040000000000006</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>8.43</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3157,31 +3168,31 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1.51596</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>12.79</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>3.61</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1.62</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>72.97</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.64</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>8.07</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>0.26</v>
       </c>
     </row>
@@ -3189,31 +3200,31 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1.5131600000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>13.02</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>3.04</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>70.48</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>6.21</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>6.96</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3221,31 +3232,31 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1.5174700000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>12.84</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>3.5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>73.27</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>8.5500000000000007</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3253,31 +3264,31 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1.52121</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>14.03</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>3.76</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>71.790000000000006</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.11</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>9.65</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3285,31 +3296,31 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1.51736</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>12.78</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>3.62</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>1.29</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>72.790000000000006</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.59</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3317,31 +3328,31 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1.5164</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>12.55</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>3.48</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>1.87</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>73.23</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>0.63</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>8.08</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -3349,31 +3360,31 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1.5197700000000001</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>13.81</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>3.58</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>1.32</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>71.72</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>0.12</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>8.67</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>0.69</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3381,31 +3392,31 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1.51806</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>13</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>3.8</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>1.08</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>73.069999999999993</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
         <v>0.12</v>
       </c>
     </row>
@@ -3413,31 +3424,31 @@
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1.51769</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>12.45</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>2.71</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>1.29</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>73.7</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>9.06</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>0.24</v>
       </c>
     </row>
@@ -3445,31 +3456,31 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1.52058</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>12.85</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>1.61</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>2.17</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>72.180000000000007</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>0.76</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>0.24</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>0.51</v>
       </c>
     </row>
@@ -3477,31 +3488,31 @@
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1.51613</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>13.92</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>3.52</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>1.25</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>72.88</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>0.37</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>7.94</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -3509,31 +3520,31 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1.5241</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>13.83</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>2.9</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>1.17</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>71.150000000000006</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>0.08</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>10.79</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3541,31 +3552,31 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1.52081</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>13.78</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>1.43</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>71.989999999999995</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>0.49</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>9.85</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>0.17</v>
       </c>
     </row>
@@ -3573,31 +3584,31 @@
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>1.51824</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>12.87</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>3.48</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>1.29</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>72.95</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>0.6</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>8.43</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3605,31 +3616,31 @@
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>1.5183199999999999</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>13.33</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>3.34</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>1.54</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>72.14</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>8.99</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3637,31 +3648,31 @@
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>1.51793</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>12.79</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>3.5</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>73.03</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>0.64</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>8.77</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3669,31 +3680,31 @@
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>1.51556</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>13.87</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>2.54</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>73.23</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>9.41</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>0.81</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>0.01</v>
       </c>
     </row>
@@ -3701,31 +3712,31 @@
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>1.51915</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>12.73</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>1.85</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>1.86</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>72.69</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>0.6</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>10.09</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3733,31 +3744,31 @@
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1.5151399999999999</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>14.01</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>2.68</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>3.5</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>69.89</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>1.68</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>5.87</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3765,31 +3776,31 @@
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>1.51766</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>13.21</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>3.69</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>1.29</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>72.61</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>8.2200000000000006</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3797,31 +3808,31 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>1.5159</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>12.82</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>3.52</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>1.9</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>72.86</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>0.69</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>7.97</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3829,31 +3840,31 @@
       <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>1.5175399999999999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>13.39</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>3.66</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>1.19</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>72.790000000000006</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>8.27</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
         <v>0.11</v>
       </c>
     </row>
@@ -3861,31 +3872,31 @@
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>1.5222199999999999</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>14.43</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>72.67</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>0.1</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>11.52</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -3893,31 +3904,31 @@
       <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>1.52227</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>14.17</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>3.81</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>0.78</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>71.349999999999994</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
         <v>9.69</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3925,31 +3936,31 @@
       <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>1.51969</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>12.64</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
         <v>1.65</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>73.75</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>0.38</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>11.53</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3957,31 +3968,31 @@
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>1.52101</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>13.64</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>4.49</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>71.78</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>0.06</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>8.75</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3989,31 +4000,31 @@
       <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>1.51658</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>14.8</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
         <v>1.99</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>73.11</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
         <v>8.2799999999999994</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>1.71</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4021,31 +4032,31 @@
       <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>1.5164599999999999</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>13.04</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>3.4</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>1.26</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>73.010000000000005</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>0.52</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>8.58</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4053,31 +4064,31 @@
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>1.5140899999999999</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>14.25</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>3.09</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>2.08</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>72.28</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>7.08</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4085,31 +4096,31 @@
       <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>1.5176099999999999</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>12.81</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>3.54</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>1.23</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>73.239999999999995</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>8.39</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4117,31 +4128,31 @@
       <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>1.5168999999999999</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>13.33</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>3.54</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>1.61</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>72.540000000000006</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>0.68</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>8.11</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4149,31 +4160,31 @@
       <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>1.51711</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>12.89</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>3.62</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>1.57</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>72.959999999999994</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>0.61</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>8.11</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4181,31 +4192,31 @@
       <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>1.5209900000000001</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>13.69</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>3.59</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>71.959999999999994</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>0.09</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1">
         <v>9.4</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4213,31 +4224,31 @@
       <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>1.5212699999999999</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>14.32</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>3.9</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>0.83</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>71.5</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
         <v>9.49</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4245,31 +4256,31 @@
       <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>1.5157099999999999</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>12.72</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>3.46</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>1.56</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>73.2</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>0.67</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>8.09</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
         <v>0.24</v>
       </c>
     </row>
@@ -4277,31 +4288,31 @@
       <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>1.5191600000000001</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>14.15</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
         <v>2.09</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>72.739999999999995</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
         <v>10.88</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4309,31 +4320,31 @@
       <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>1.5277700000000001</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>12.64</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
         <v>0.67</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>72.02</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>0.06</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>14.4</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4341,31 +4352,31 @@
       <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>1.5166999999999999</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>13.24</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>3.57</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>1.38</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>72.7</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="1">
         <v>8.44</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -4373,31 +4384,31 @@
       <c r="A46" t="s">
         <v>54</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>1.5204299999999999</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>13.38</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
         <v>1.4</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>72.25</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>0.33</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>12.5</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4405,31 +4416,31 @@
       <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>1.51708</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>13.72</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>3.68</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>1.81</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>72.06</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>0.64</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>7.88</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4437,31 +4448,31 @@
       <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>1.5113099999999999</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>13.69</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>3.2</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>1.81</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>72.81</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>1.76</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>5.43</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>1.19</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4469,31 +4480,31 @@
       <c r="A49" t="s">
         <v>57</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>1.5185999999999999</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>13.36</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>3.43</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>1.43</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>72.260000000000005</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>0.51</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>8.6</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4501,31 +4512,31 @@
       <c r="A50" t="s">
         <v>58</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>1.5164</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>14.37</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
         <v>2.74</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>72.849999999999994</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
         <v>9.4499999999999993</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1">
         <v>0.54</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4533,31 +4544,31 @@
       <c r="A51" t="s">
         <v>59</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>1.5172699999999999</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>14.7</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
         <v>2.34</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>73.28</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
         <v>8.9499999999999993</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="1">
         <v>0.66</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4565,31 +4576,31 @@
       <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>1.51593</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>13.09</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>3.59</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>1.52</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>73.099999999999994</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>0.67</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>7.83</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4597,31 +4608,31 @@
       <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>1.5182899999999999</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>13.24</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>3.9</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>1.41</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>72.33</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="1">
         <v>8.31</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -4629,31 +4640,31 @@
       <c r="A54" t="s">
         <v>62</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>1.51776</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>13.53</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>3.41</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>1.52</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1">
         <v>72.040000000000006</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="1">
         <v>8.7899999999999991</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4661,31 +4672,31 @@
       <c r="A55" t="s">
         <v>63</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>1.5165999999999999</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>12.99</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>3.18</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>1.23</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <v>72.97</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="1">
         <v>8.81</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
         <v>0.24</v>
       </c>
     </row>
@@ -4693,31 +4704,31 @@
       <c r="A56" t="s">
         <v>64</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>1.5158799999999999</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>13.12</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>3.41</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>1.58</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>73.260000000000005</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1">
         <v>8.39</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
         <v>0.19</v>
       </c>
     </row>
@@ -4725,31 +4736,31 @@
       <c r="A57" t="s">
         <v>65</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>1.5156700000000001</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>13.29</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>3.45</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>1.21</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
         <v>72.739999999999995</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="1">
         <v>8.57</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4757,31 +4768,31 @@
       <c r="A58" t="s">
         <v>66</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>1.51837</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>13.14</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>2.84</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>1.28</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>72.849999999999994</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
         <v>9.07</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4789,31 +4800,31 @@
       <c r="A59" t="s">
         <v>67</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>1.51651</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>14.38</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
         <v>1.94</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <v>73.61</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
         <v>8.48</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="1">
         <v>1.57</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4821,31 +4832,31 @@
       <c r="A60" t="s">
         <v>68</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>1.51593</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>13.25</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>3.45</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>1.43</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <v>73.17</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <v>0.61</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="1">
         <v>7.86</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4853,31 +4864,31 @@
       <c r="A61" t="s">
         <v>69</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>1.5183800000000001</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>14.32</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>3.26</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <v>71.25</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <v>1.46</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1">
         <v>5.79</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="1">
         <v>1.63</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4885,31 +4896,31 @@
       <c r="A62" t="s">
         <v>70</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>1.51627</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>13</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>3.58</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>1.54</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <v>72.83</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="1">
         <v>0.61</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="1">
         <v>8.0399999999999991</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4917,31 +4928,31 @@
       <c r="A63" t="s">
         <v>71</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>1.5161</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>13.33</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>3.53</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>1.34</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="1">
         <v>72.67</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="1">
         <v>8.33</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4949,31 +4960,31 @@
       <c r="A64" t="s">
         <v>72</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>1.5181100000000001</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>12.96</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>2.96</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>1.43</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="1">
         <v>72.92</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="1">
         <v>0.6</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="1">
         <v>8.7899999999999991</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4981,31 +4992,31 @@
       <c r="A65" t="s">
         <v>73</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>1.5174300000000001</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>13.3</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>3.6</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>73.09</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="1">
         <v>8.17</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5013,31 +5024,31 @@
       <c r="A66" t="s">
         <v>74</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>1.51589</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>12.88</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>3.43</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>1.4</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <v>73.28</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="1">
         <v>0.69</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="1">
         <v>8.0500000000000007</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
         <v>0.24</v>
       </c>
     </row>
@@ -5045,31 +5056,31 @@
       <c r="A67" t="s">
         <v>75</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>1.52223</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>13.21</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>3.77</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>0.79</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <v>71.989999999999995</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="1">
         <v>0.13</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1">
         <v>10.02</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5077,31 +5088,31 @@
       <c r="A68" t="s">
         <v>76</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>1.5166599999999999</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>12.86</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
         <v>1.83</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <v>73.88</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="1">
         <v>0.97</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="1">
         <v>10.17</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5109,31 +5120,31 @@
       <c r="A69" t="s">
         <v>77</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>1.5166299999999999</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>12.93</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>3.54</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>1.62</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1">
         <v>72.959999999999994</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="1">
         <v>0.64</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="1">
         <v>8.0299999999999994</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
         <v>0.21</v>
       </c>
     </row>
@@ -5141,31 +5152,31 @@
       <c r="A70" t="s">
         <v>78</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>1.5193399999999999</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>13.64</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>3.54</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>0.75</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <v>72.650000000000006</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="1">
         <v>0.16</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="1">
         <v>8.89</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="1">
         <v>0.15</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="1">
         <v>0.24</v>
       </c>
     </row>
@@ -5173,31 +5184,31 @@
       <c r="A71" t="s">
         <v>79</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>1.51508</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>15.15</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
         <v>2.25</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <v>73.5</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
         <v>8.34</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="1">
         <v>0.63</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5205,31 +5216,31 @@
       <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>1.5186900000000001</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>13.19</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>3.37</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>1.18</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>72.72</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="1">
         <v>8.83</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -5237,31 +5248,31 @@
       <c r="A73" t="s">
         <v>81</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>1.5160899999999999</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>15.01</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>73.05</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="1">
         <v>0.05</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="1">
         <v>8.83</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="1">
         <v>0.53</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5269,31 +5280,31 @@
       <c r="A74" t="s">
         <v>82</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>1.5182</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>12.62</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>2.76</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>0.83</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1">
         <v>73.81</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="1">
         <v>0.35</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="1">
         <v>9.42</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -5301,31 +5312,31 @@
       <c r="A75" t="s">
         <v>83</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>1.51851</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>13.2</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>3.63</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>1.07</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>72.83</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="1">
         <v>8.41</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="1">
         <v>0.09</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="1">
         <v>0.17</v>
       </c>
     </row>
@@ -5333,31 +5344,31 @@
       <c r="A76" t="s">
         <v>84</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>1.51789</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>13.19</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>3.9</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>1.3</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>72.33</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="1">
         <v>8.44</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -5365,31 +5376,31 @@
       <c r="A77" t="s">
         <v>85</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>1.5177799999999999</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>13.21</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>2.81</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="1">
         <v>1.29</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1">
         <v>72.98</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="1">
         <v>0.51</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="1">
         <v>9.02</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -5397,31 +5408,31 @@
       <c r="A78" t="s">
         <v>86</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>1.5161</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>13.42</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>3.4</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>1.22</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="1">
         <v>72.69</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="1">
         <v>0.59</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="1">
         <v>8.32</v>
       </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5429,31 +5440,31 @@
       <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>1.51911</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>13.9</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>3.73</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>1.18</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="1">
         <v>72.12</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="1">
         <v>0.06</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="1">
         <v>8.89</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5461,31 +5472,31 @@
       <c r="A80" t="s">
         <v>88</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>1.5168699999999999</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>13.23</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>3.54</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>1.48</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1">
         <v>72.84</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="1">
         <v>8.1</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5493,31 +5504,31 @@
       <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>1.5185200000000001</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>14.09</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <v>2.19</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>1.66</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="1">
         <v>72.67</v>
       </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
         <v>9.32</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5525,31 +5536,31 @@
       <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>1.5221</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>13.73</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>3.84</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="1">
         <v>0.72</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="1">
         <v>71.760000000000005</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="1">
         <v>0.17</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="1">
         <v>9.74</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5557,31 +5568,31 @@
       <c r="A83" t="s">
         <v>91</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>1.5178400000000001</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>13.08</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <v>3.49</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="1">
         <v>1.28</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="1">
         <v>72.86</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="1">
         <v>0.6</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="1">
         <v>8.49</v>
       </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5589,31 +5600,31 @@
       <c r="A84" t="s">
         <v>92</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>1.5232000000000001</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>13.72</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <v>3.72</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="1">
         <v>0.51</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="1">
         <v>71.75</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="1">
         <v>0.09</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="1">
         <v>10.06</v>
       </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -5621,31 +5632,31 @@
       <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>1.5173000000000001</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>12.35</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>2.72</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="1">
         <v>1.63</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="1">
         <v>72.87</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="1">
         <v>0.7</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="1">
         <v>9.23</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5653,31 +5664,31 @@
       <c r="A86" t="s">
         <v>94</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>1.51617</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>14.95</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
         <v>2.27</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="1">
         <v>73.3</v>
       </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
         <v>8.7100000000000009</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="1">
         <v>0.67</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5685,31 +5696,31 @@
       <c r="A87" t="s">
         <v>95</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>1.5159400000000001</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>13.09</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>3.52</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>1.55</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="1">
         <v>72.87</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="1">
         <v>0.68</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="1">
         <v>8.0500000000000007</v>
       </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -5717,31 +5728,31 @@
       <c r="A88" t="s">
         <v>96</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>1.51966</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>14.77</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>3.75</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="1">
         <v>72.02</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="1">
         <v>0.03</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="1">
         <v>9</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5749,31 +5760,31 @@
       <c r="A89" t="s">
         <v>97</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>1.5236499999999999</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>15.79</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <v>1.83</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>1.31</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="1">
         <v>70.430000000000007</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="1">
         <v>0.31</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="1">
         <v>8.61</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="1">
         <v>1.68</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5781,31 +5792,31 @@
       <c r="A90" t="s">
         <v>98</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>1.5192600000000001</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>13.2</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <v>3.33</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="1">
         <v>1.28</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="1">
         <v>72.36</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="1">
         <v>0.6</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="1">
         <v>9.14</v>
       </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
         <v>0.11</v>
       </c>
     </row>
@@ -5813,31 +5824,31 @@
       <c r="A91" t="s">
         <v>99</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>1.5165500000000001</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>13.41</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <v>3.39</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="1">
         <v>1.28</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="1">
         <v>72.64</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="1">
         <v>0.52</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="1">
         <v>8.65</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5845,31 +5856,31 @@
       <c r="A92" t="s">
         <v>100</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>1.51847</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>13.1</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <v>3.97</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="1">
         <v>1.19</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="1">
         <v>72.44</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="1">
         <v>0.6</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="1">
         <v>8.43</v>
       </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5877,31 +5888,31 @@
       <c r="A93" t="s">
         <v>101</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>1.51779</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>13.64</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <v>3.65</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="1">
         <v>0.65</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="1">
         <v>73</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="1">
         <v>0.06</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="1">
         <v>8.93</v>
       </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5909,31 +5920,31 @@
       <c r="A94" t="s">
         <v>102</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>1.5162500000000001</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>13.36</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <v>3.58</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="1">
         <v>1.49</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="1">
         <v>72.72</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="1">
         <v>0.45</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="1">
         <v>8.2100000000000009</v>
       </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5941,31 +5952,31 @@
       <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>1.5166500000000001</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>13.14</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <v>3.45</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <v>1.76</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="1">
         <v>72.48</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="1">
         <v>0.6</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
         <v>0.17</v>
       </c>
     </row>
@@ -5973,31 +5984,31 @@
       <c r="A96" t="s">
         <v>104</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>1.51755</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>12.71</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <v>3.42</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="1">
         <v>1.2</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="1">
         <v>73.2</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="1">
         <v>0.59</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="1">
         <v>8.64</v>
       </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6005,31 +6016,31 @@
       <c r="A97" t="s">
         <v>105</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>1.5174300000000001</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>12.2</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <v>3.25</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="1">
         <v>73.55</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="1">
         <v>0.62</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="1">
         <v>8.9</v>
       </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
         <v>0.24</v>
       </c>
     </row>
@@ -6037,31 +6048,31 @@
       <c r="A98" t="s">
         <v>106</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>1.52247</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>14.86</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="1">
         <v>2.06</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="1">
         <v>70.260000000000005</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="1">
         <v>0.76</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="1">
         <v>9.76</v>
       </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6069,31 +6080,31 @@
       <c r="A99" t="s">
         <v>107</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>1.5175399999999999</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>13.48</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
         <v>3.74</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="1">
         <v>1.17</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="1">
         <v>72.989999999999995</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="1">
         <v>0.59</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="1">
         <v>8.0299999999999994</v>
       </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6101,31 +6112,31 @@
       <c r="A100" t="s">
         <v>108</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>1.51786</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>12.73</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <v>3.43</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="1">
         <v>1.19</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="1">
         <v>72.95</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="1">
         <v>0.62</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="1">
         <v>8.76</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
         <v>0.3</v>
       </c>
     </row>
@@ -6133,31 +6144,31 @@
       <c r="A101" t="s">
         <v>109</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>1.51623</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>14.2</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
         <v>2.79</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="1">
         <v>73.459999999999994</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="1">
         <v>0.04</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="1">
         <v>9.0399999999999991</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="1">
         <v>0.4</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -6165,31 +6176,31 @@
       <c r="A102" t="s">
         <v>110</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>1.5190900000000001</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>13.89</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <v>3.53</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="1">
         <v>1.32</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="1">
         <v>71.81</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="1">
         <v>0.51</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="1">
         <v>8.7799999999999994</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="1">
         <v>0.11</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6197,31 +6208,31 @@
       <c r="A103" t="s">
         <v>111</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>1.52475</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>11.45</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
         <v>1.88</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="1">
         <v>72.19</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="1">
         <v>0.81</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="1">
         <v>13.24</v>
       </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
+      <c r="J103" s="1">
+        <v>0</v>
+      </c>
+      <c r="K103" s="1">
         <v>0.34</v>
       </c>
     </row>
@@ -6229,31 +6240,31 @@
       <c r="A104" t="s">
         <v>112</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>1.51763</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>12.8</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="1">
         <v>3.66</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="1">
         <v>1.27</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="1">
         <v>73.010000000000005</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="1">
         <v>0.6</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="1">
         <v>8.56</v>
       </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6261,31 +6272,31 @@
       <c r="A105" t="s">
         <v>113</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>1.5164500000000001</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>14.94</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
         <v>1.87</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="1">
         <v>73.11</v>
       </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
         <v>8.67</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="1">
         <v>1.38</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6293,31 +6304,31 @@
       <c r="A106" t="s">
         <v>114</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>1.5164599999999999</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>13.41</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="1">
         <v>3.55</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="1">
         <v>1.25</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="1">
         <v>72.81</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="1">
         <v>0.68</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="1">
         <v>8.1</v>
       </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6325,31 +6336,31 @@
       <c r="A107" t="s">
         <v>115</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>1.52213</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>14.21</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="1">
         <v>3.82</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="1">
         <v>0.47</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="1">
         <v>71.77</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="1">
         <v>0.11</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="1">
         <v>9.57</v>
       </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6357,31 +6368,31 @@
       <c r="A108" t="s">
         <v>116</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>1.5157400000000001</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>14.86</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="1">
         <v>3.67</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="1">
         <v>1.74</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="1">
         <v>71.87</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="1">
         <v>0.16</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="1">
         <v>7.36</v>
       </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
         <v>0.12</v>
       </c>
     </row>
@@ -6389,31 +6400,31 @@
       <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>1.5161800000000001</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>13.01</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="1">
         <v>3.5</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="1">
         <v>1.48</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="1">
         <v>72.89</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="1">
         <v>0.6</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="1">
         <v>8.1199999999999992</v>
       </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6421,31 +6432,31 @@
       <c r="A110" t="s">
         <v>118</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>1.51841</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>13.02</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="1">
         <v>3.62</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="1">
         <v>1.06</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="1">
         <v>72.34</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="1">
         <v>0.64</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="1">
         <v>9.1300000000000008</v>
       </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
         <v>0.15</v>
       </c>
     </row>
@@ -6453,31 +6464,31 @@
       <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>1.52667</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>13.99</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="1">
         <v>3.7</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="1">
         <v>0.71</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="1">
         <v>71.569999999999993</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="1">
         <v>0.02</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="1">
         <v>9.82</v>
       </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -6485,31 +6496,31 @@
       <c r="A112" t="s">
         <v>120</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>1.51779</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>13.21</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="1">
         <v>3.39</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="1">
         <v>1.33</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="1">
         <v>72.760000000000005</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="1">
         <v>0.59</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="1">
         <v>8.59</v>
       </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6517,31 +6528,31 @@
       <c r="A113" t="s">
         <v>121</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>1.51797</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>12.74</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="1">
         <v>3.48</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="1">
         <v>1.35</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="1">
         <v>72.959999999999994</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="1">
         <v>0.64</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="1">
         <v>8.68</v>
       </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6549,31 +6560,31 @@
       <c r="A114" t="s">
         <v>122</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>1.5165500000000001</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>12.75</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="1">
         <v>2.85</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="1">
         <v>1.44</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="1">
         <v>73.27</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="1">
         <v>8.7899999999999991</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="1">
         <v>0.11</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="1">
         <v>0.22</v>
       </c>
     </row>
@@ -6581,31 +6592,31 @@
       <c r="A115" t="s">
         <v>123</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>1.51769</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>13.65</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="1">
         <v>3.66</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="1">
         <v>72.77</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="1">
         <v>0.11</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="1">
         <v>8.6</v>
       </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6613,31 +6624,31 @@
       <c r="A116" t="s">
         <v>124</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>1.51685</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>14.92</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
         <v>1.99</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="1">
         <v>73.06</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
         <v>8.4</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="1">
         <v>1.59</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6645,31 +6656,31 @@
       <c r="A117" t="s">
         <v>125</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>1.51711</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>14.23</v>
       </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
         <v>2.08</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="1">
         <v>73.36</v>
       </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
         <v>8.6199999999999992</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="1">
         <v>1.67</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6677,31 +6688,31 @@
       <c r="A118" t="s">
         <v>126</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>1.51905</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>13.6</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="1">
         <v>3.62</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="1">
         <v>72.64</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="1">
         <v>8.76</v>
       </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6709,31 +6720,31 @@
       <c r="A119" t="s">
         <v>127</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>1.5159</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>13.02</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="1">
         <v>3.58</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="1">
         <v>1.51</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="1">
         <v>73.12</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="1">
         <v>0.69</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="1">
         <v>7.96</v>
       </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6741,31 +6752,31 @@
       <c r="A120" t="s">
         <v>128</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>1.51674</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>12.79</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="1">
         <v>3.52</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="1">
         <v>1.54</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="1">
         <v>73.36</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="1">
         <v>0.66</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="1">
         <v>7.9</v>
       </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6773,31 +6784,31 @@
       <c r="A121" t="s">
         <v>129</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>1.51969</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>14.56</v>
       </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="1">
         <v>73.48</v>
       </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
         <v>11.22</v>
       </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6805,31 +6816,31 @@
       <c r="A122" t="s">
         <v>130</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>1.5187200000000001</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>12.93</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="1">
         <v>3.66</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="1">
         <v>1.56</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="1">
         <v>72.510000000000005</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="1">
         <v>8.5500000000000007</v>
       </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
         <v>0.12</v>
       </c>
     </row>
@@ -6837,31 +6848,31 @@
       <c r="A123" t="s">
         <v>131</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>1.52664</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>11.23</v>
       </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
         <v>0.77</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="1">
         <v>73.209999999999994</v>
       </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
         <v>14.68</v>
       </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6869,31 +6880,31 @@
       <c r="A124" t="s">
         <v>132</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>1.52152</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>13.05</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="1">
         <v>3.65</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="1">
         <v>0.87</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="1">
         <v>72.22</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="1">
         <v>0.19</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="1">
         <v>9.85</v>
       </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
         <v>0.17</v>
       </c>
     </row>
@@ -6901,31 +6912,31 @@
       <c r="A125" t="s">
         <v>133</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>1.5172000000000001</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>13.38</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="1">
         <v>3.5</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="1">
         <v>72.849999999999994</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="1">
         <v>0.5</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="1">
         <v>8.43</v>
       </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6933,31 +6944,31 @@
       <c r="A126" t="s">
         <v>134</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>1.5183899999999999</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>12.85</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1">
         <v>3.67</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="1">
         <v>1.24</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="1">
         <v>72.569999999999993</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="1">
         <v>0.62</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="1">
         <v>8.68</v>
       </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1">
         <v>0.35</v>
       </c>
     </row>
@@ -6965,31 +6976,31 @@
       <c r="A127" t="s">
         <v>135</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>1.5160499999999999</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>12.9</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="1">
         <v>3.44</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="1">
         <v>1.45</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1">
         <v>73.06</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="1">
         <v>0.44</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="1">
         <v>8.27</v>
       </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6997,31 +7008,31 @@
       <c r="A128" t="s">
         <v>136</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>1.5261400000000001</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>13.7</v>
       </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
         <v>1.36</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1">
         <v>71.239999999999995</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="1">
         <v>0.19</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="1">
         <v>13.44</v>
       </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -7029,31 +7040,31 @@
       <c r="A129" t="s">
         <v>137</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>1.5176099999999999</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>13.89</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="1">
         <v>3.6</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
         <v>1.36</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1">
         <v>72.73</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="1">
         <v>0.48</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="1">
         <v>7.83</v>
       </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7061,31 +7072,31 @@
       <c r="A130" t="s">
         <v>138</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>1.51674</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>12.87</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="1">
         <v>3.56</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="1">
         <v>1.64</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="1">
         <v>73.14</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="1">
         <v>0.65</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="1">
         <v>7.99</v>
       </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7093,31 +7104,31 @@
       <c r="A131" t="s">
         <v>139</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>1.5181100000000001</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <v>13.33</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="1">
         <v>3.85</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="1">
         <v>1.25</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="1">
         <v>72.78</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="1">
         <v>0.52</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="1">
         <v>8.1199999999999992</v>
       </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="K131" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7125,31 +7136,31 @@
       <c r="A132" t="s">
         <v>140</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>1.5162899999999999</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
         <v>12.71</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="1">
         <v>3.33</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="1">
         <v>1.49</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="1">
         <v>73.28</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="1">
         <v>0.67</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="1">
         <v>8.24</v>
       </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7157,31 +7168,31 @@
       <c r="A133" t="s">
         <v>141</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>1.51596</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <v>13.02</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="1">
         <v>3.56</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="1">
         <v>1.54</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="1">
         <v>73.11</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="1">
         <v>0.72</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="1">
         <v>7.9</v>
       </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7189,31 +7200,31 @@
       <c r="A134" t="s">
         <v>142</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>1.5164500000000001</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <v>13.44</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="1">
         <v>3.61</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="1">
         <v>1.54</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="1">
         <v>72.39</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="1">
         <v>0.66</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="1">
         <v>8.0299999999999994</v>
       </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7221,31 +7232,31 @@
       <c r="A135" t="s">
         <v>143</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>1.5151399999999999</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>14.85</v>
       </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
         <v>2.42</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="1">
         <v>73.72</v>
       </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
         <v>8.39</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7253,31 +7264,31 @@
       <c r="A136" t="s">
         <v>144</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>1.5193700000000001</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>13.79</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="1">
         <v>2.41</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="1">
         <v>1.19</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="1">
         <v>72.760000000000005</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+      <c r="I136" s="1">
         <v>9.77</v>
       </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7285,31 +7296,31 @@
       <c r="A137" t="s">
         <v>145</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>1.5153099999999999</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>14.38</v>
       </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
         <v>2.66</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="1">
         <v>73.099999999999994</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="1">
         <v>0.04</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="1">
         <v>9.08</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="1">
         <v>0.64</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7317,31 +7328,31 @@
       <c r="A138" t="s">
         <v>146</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>1.52068</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <v>13.55</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="1">
         <v>2.09</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="1">
         <v>1.67</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="1">
         <v>72.180000000000007</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="1">
         <v>0.53</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="1">
         <v>9.57</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="1">
         <v>0.27</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="1">
         <v>0.17</v>
       </c>
     </row>
@@ -7349,31 +7360,31 @@
       <c r="A139" t="s">
         <v>147</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>1.5170699999999999</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="1">
         <v>13.48</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="1">
         <v>3.48</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="1">
         <v>1.71</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="1">
         <v>72.52</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="1">
         <v>0.62</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="1">
         <v>7.99</v>
       </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139">
+      <c r="J139" s="1">
+        <v>0</v>
+      </c>
+      <c r="K139" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7381,31 +7392,31 @@
       <c r="A140" t="s">
         <v>148</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>1.51793</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
         <v>13.21</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="1">
         <v>3.48</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="1">
         <v>1.41</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="1">
         <v>72.64</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="1">
         <v>0.59</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="1">
         <v>8.43</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
+      <c r="J140" s="1">
+        <v>0</v>
+      </c>
+      <c r="K140" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7413,31 +7424,31 @@
       <c r="A141" t="s">
         <v>149</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>1.5221100000000001</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
         <v>14.19</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="1">
         <v>3.78</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="1">
         <v>0.91</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="1">
         <v>71.36</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="1">
         <v>0.23</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="1">
         <v>9.14</v>
       </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1">
         <v>0.37</v>
       </c>
     </row>
@@ -7445,31 +7456,31 @@
       <c r="A142" t="s">
         <v>150</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>1.5176400000000001</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
         <v>12.98</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="1">
         <v>3.54</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="1">
         <v>1.21</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="1">
         <v>73</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="1">
         <v>0.65</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="1">
         <v>8.5299999999999994</v>
       </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
+      <c r="J142" s="1">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7477,31 +7488,31 @@
       <c r="A143" t="s">
         <v>151</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>1.51545</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <v>14.14</v>
       </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1">
         <v>2.68</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="1">
         <v>73.39</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="1">
         <v>0.08</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="1">
         <v>9.07</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="1">
         <v>0.61</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="1">
         <v>0.05</v>
       </c>
     </row>
@@ -7509,31 +7520,31 @@
       <c r="A144" t="s">
         <v>152</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>1.5164299999999999</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="1">
         <v>12.16</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="1">
         <v>3.52</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="1">
         <v>1.35</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="1">
         <v>72.89</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="1">
         <v>8.5299999999999994</v>
       </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
+      <c r="J144" s="1">
+        <v>0</v>
+      </c>
+      <c r="K144" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7541,31 +7552,31 @@
       <c r="A145" t="s">
         <v>153</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>1.5164500000000001</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
         <v>13.4</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="1">
         <v>3.49</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="1">
         <v>1.52</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="1">
         <v>72.650000000000006</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="1">
         <v>0.67</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="1">
         <v>8.08</v>
       </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -7573,31 +7584,31 @@
       <c r="A146" t="s">
         <v>154</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>1.52739</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <v>11.02</v>
       </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
         <v>0.75</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="1">
         <v>73.08</v>
       </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
         <v>14.96</v>
       </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
+      <c r="J146" s="1">
+        <v>0</v>
+      </c>
+      <c r="K146" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7605,31 +7616,31 @@
       <c r="A147" t="s">
         <v>155</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>1.5182899999999999</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <v>14.46</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="1">
         <v>1.62</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="1">
         <v>72.38</v>
       </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
         <v>9.26</v>
       </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7637,31 +7648,31 @@
       <c r="A148" t="s">
         <v>156</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>1.5181800000000001</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
         <v>13.72</v>
       </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="1">
         <v>74.45</v>
       </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
+      <c r="H148" s="1">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1">
         <v>10.99</v>
       </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
+      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7669,31 +7680,31 @@
       <c r="A149" t="s">
         <v>157</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>1.51888</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
         <v>14.99</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="1">
         <v>0.78</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="1">
         <v>1.74</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="1">
         <v>72.5</v>
       </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
+      <c r="H149" s="1">
+        <v>0</v>
+      </c>
+      <c r="I149" s="1">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
+      <c r="J149" s="1">
+        <v>0</v>
+      </c>
+      <c r="K149" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7701,31 +7712,31 @@
       <c r="A150" t="s">
         <v>158</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>1.5159199999999999</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>12.86</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="1">
         <v>3.52</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="1">
         <v>2.12</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="1">
         <v>72.66</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="1">
         <v>0.69</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="1">
         <v>7.97</v>
       </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
+      <c r="J150" s="1">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7733,31 +7744,31 @@
       <c r="A151" t="s">
         <v>159</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>1.5166200000000001</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <v>12.85</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="1">
         <v>3.51</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="1">
         <v>1.44</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="1">
         <v>73.010000000000005</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="1">
         <v>0.68</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="1">
         <v>8.23</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="1">
         <v>0.06</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="1">
         <v>0.25</v>
       </c>
     </row>
@@ -7765,31 +7776,31 @@
       <c r="A152" t="s">
         <v>160</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>1.52725</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <v>13.8</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="1">
         <v>3.15</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="1">
         <v>0.66</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="1">
         <v>70.569999999999993</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="1">
         <v>0.08</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="1">
         <v>11.64</v>
       </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
+      <c r="J152" s="1">
+        <v>0</v>
+      </c>
+      <c r="K152" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7797,31 +7808,31 @@
       <c r="A153" t="s">
         <v>161</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>1.51844</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>13.25</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="1">
         <v>3.76</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="1">
         <v>1.32</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="1">
         <v>72.400000000000006</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="1">
         <v>8.42</v>
       </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7829,31 +7840,31 @@
       <c r="A154" t="s">
         <v>162</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>1.5180800000000001</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <v>13.43</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="1">
         <v>2.87</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="1">
         <v>1.19</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="1">
         <v>72.84</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="1">
         <v>9.0299999999999994</v>
       </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154">
+      <c r="J154" s="1">
+        <v>0</v>
+      </c>
+      <c r="K154" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7861,31 +7872,31 @@
       <c r="A155" t="s">
         <v>163</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>1.52315</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <v>13.44</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="1">
         <v>3.34</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="1">
         <v>1.23</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="1">
         <v>72.38</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="1">
         <v>0.6</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="1">
         <v>8.83</v>
       </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
+      <c r="J155" s="1">
+        <v>0</v>
+      </c>
+      <c r="K155" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7893,31 +7904,31 @@
       <c r="A156" t="s">
         <v>164</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>1.5165200000000001</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="1">
         <v>13.56</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="1">
         <v>3.57</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="1">
         <v>1.47</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="1">
         <v>72.45</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="1">
         <v>0.64</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="1">
         <v>7.96</v>
       </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
+      <c r="J156" s="1">
+        <v>0</v>
+      </c>
+      <c r="K156" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7925,31 +7936,31 @@
       <c r="A157" t="s">
         <v>165</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>1.51631</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="1">
         <v>13.34</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="1">
         <v>3.57</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="1">
         <v>1.57</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="1">
         <v>72.87</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="1">
         <v>0.61</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="1">
         <v>7.89</v>
       </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
+      <c r="J157" s="1">
+        <v>0</v>
+      </c>
+      <c r="K157" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7957,31 +7968,31 @@
       <c r="A158" t="s">
         <v>166</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>1.52369</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="1">
         <v>13.44</v>
       </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
         <v>1.58</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="1">
         <v>72.22</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="1">
         <v>0.32</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="1">
         <v>12.24</v>
       </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158">
+      <c r="J158" s="1">
+        <v>0</v>
+      </c>
+      <c r="K158" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7989,31 +8000,31 @@
       <c r="A159" t="s">
         <v>167</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>1.518</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="1">
         <v>13.71</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="1">
         <v>3.93</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="1">
         <v>1.54</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="1">
         <v>71.81</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="1">
         <v>0.54</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="1">
         <v>8.2100000000000009</v>
       </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
+      <c r="K159" s="1">
         <v>0.15</v>
       </c>
     </row>
@@ -8021,31 +8032,31 @@
       <c r="A160" t="s">
         <v>168</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>1.5177499999999999</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="1">
         <v>12.85</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="1">
         <v>3.48</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="1">
         <v>1.23</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="1">
         <v>72.97</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="1">
         <v>0.61</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="1">
         <v>8.56</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="1">
         <v>0.09</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="1">
         <v>0.22</v>
       </c>
     </row>
@@ -8053,31 +8064,31 @@
       <c r="A161" t="s">
         <v>169</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>1.5160199999999999</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="1">
         <v>14.85</v>
       </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
         <v>2.38</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="1">
         <v>73.28</v>
       </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
         <v>8.76</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="1">
         <v>0.64</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -8085,31 +8096,31 @@
       <c r="A162" t="s">
         <v>170</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>1.51892</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <v>13.46</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="1">
         <v>3.83</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="1">
         <v>1.26</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="1">
         <v>72.55</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="1">
         <v>8.2100000000000009</v>
       </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
+      <c r="J162" s="1">
+        <v>0</v>
+      </c>
+      <c r="K162" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -8117,31 +8128,31 @@
       <c r="A163" t="s">
         <v>171</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>1.5168900000000001</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="1">
         <v>12.67</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="1">
         <v>2.88</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="1">
         <v>1.71</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="1">
         <v>73.209999999999994</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="1">
         <v>0.73</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="1">
         <v>8.5399999999999991</v>
       </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
+      <c r="J163" s="1">
+        <v>0</v>
+      </c>
+      <c r="K163" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8149,31 +8160,31 @@
       <c r="A164" t="s">
         <v>172</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>1.5121500000000001</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="1">
         <v>12.99</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="1">
         <v>3.47</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="1">
         <v>72.98</v>
       </c>
-      <c r="H164">
+      <c r="H164" s="1">
         <v>0.62</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="1">
         <v>8.35</v>
       </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
+      <c r="J164" s="1">
+        <v>0</v>
+      </c>
+      <c r="K164" s="1">
         <v>0.31</v>
       </c>
     </row>
@@ -8181,31 +8192,31 @@
       <c r="A165" t="s">
         <v>173</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>1.5175099999999999</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="1">
         <v>12.81</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="1">
         <v>3.57</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="1">
         <v>1.35</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="1">
         <v>73.02</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="1">
         <v>0.62</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="1">
         <v>8.59</v>
       </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
+      <c r="J165" s="1">
+        <v>0</v>
+      </c>
+      <c r="K165" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8213,31 +8224,31 @@
       <c r="A166" t="s">
         <v>174</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>1.5168299999999999</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="1">
         <v>14.56</v>
       </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
+      <c r="E166" s="1">
+        <v>0</v>
+      </c>
+      <c r="F166" s="1">
         <v>1.98</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="1">
         <v>73.290000000000006</v>
       </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-      <c r="I166">
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+      <c r="I166" s="1">
         <v>8.52</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="1">
         <v>1.57</v>
       </c>
-      <c r="K166">
+      <c r="K166" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -8245,31 +8256,31 @@
       <c r="A167" t="s">
         <v>175</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>1.51719</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="1">
         <v>14.75</v>
       </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1">
         <v>2</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="1">
         <v>73.02</v>
       </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+      <c r="I167" s="1">
         <v>8.5299999999999994</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="1">
         <v>1.59</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -8277,31 +8288,31 @@
       <c r="A168" t="s">
         <v>176</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>1.52172</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="1">
         <v>13.48</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="1">
         <v>3.74</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="1">
         <v>0.9</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="1">
         <v>72.010000000000005</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="1">
         <v>0.18</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="1">
         <v>9.61</v>
       </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
+      <c r="J168" s="1">
+        <v>0</v>
+      </c>
+      <c r="K168" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -8309,31 +8320,31 @@
       <c r="A169" t="s">
         <v>177</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>1.51898</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="1">
         <v>13.58</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="1">
         <v>3.35</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="1">
         <v>1.23</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="1">
         <v>72.08</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="1">
         <v>0.59</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="1">
         <v>8.91</v>
       </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
+      <c r="J169" s="1">
+        <v>0</v>
+      </c>
+      <c r="K169" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8341,31 +8352,31 @@
       <c r="A170" t="s">
         <v>178</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>1.51742</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <v>13.27</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="1">
         <v>3.62</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="1">
         <v>1.24</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="1">
         <v>73.08</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="1">
         <v>8.07</v>
       </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
+      <c r="J170" s="1">
+        <v>0</v>
+      </c>
+      <c r="K170" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8373,31 +8384,31 @@
       <c r="A171" t="s">
         <v>179</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>1.5217099999999999</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <v>11.56</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="1">
         <v>1.88</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="1">
         <v>1.56</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="1">
         <v>72.86</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="1">
         <v>0.47</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="1">
         <v>11.41</v>
       </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
+      <c r="J171" s="1">
+        <v>0</v>
+      </c>
+      <c r="K171" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8405,31 +8416,31 @@
       <c r="A172" t="s">
         <v>180</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>1.51796</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>13.5</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="1">
         <v>3.36</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="1">
         <v>1.63</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="1">
         <v>71.94</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="1">
         <v>8.81</v>
       </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
+      <c r="J172" s="1">
+        <v>0</v>
+      </c>
+      <c r="K172" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -8437,31 +8448,31 @@
       <c r="A173" t="s">
         <v>181</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>1.51732</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>14.95</v>
       </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
         <v>1.8</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="1">
         <v>72.989999999999995</v>
       </c>
-      <c r="H173">
-        <v>0</v>
-      </c>
-      <c r="I173">
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+      <c r="I173" s="1">
         <v>8.61</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="1">
         <v>1.55</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8469,31 +8480,31 @@
       <c r="A174" t="s">
         <v>182</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>1.5161800000000001</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>13.53</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="1">
         <v>3.55</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="1">
         <v>1.54</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="1">
         <v>72.989999999999995</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="1">
         <v>0.39</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="1">
         <v>7.78</v>
       </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
+      <c r="J174" s="1">
+        <v>0</v>
+      </c>
+      <c r="K174" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8501,31 +8512,31 @@
       <c r="A175" t="s">
         <v>183</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>1.52152</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>13.05</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="1">
         <v>3.65</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="1">
         <v>0.87</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="1">
         <v>72.319999999999993</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="1">
         <v>0.19</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="1">
         <v>9.85</v>
       </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175">
+      <c r="J175" s="1">
+        <v>0</v>
+      </c>
+      <c r="K175" s="1">
         <v>0.17</v>
       </c>
     </row>
@@ -8533,31 +8544,31 @@
       <c r="A176" t="s">
         <v>184</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>1.51755</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <v>13</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="1">
         <v>3.6</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="1">
         <v>1.36</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="1">
         <v>72.989999999999995</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="1">
         <v>8.4</v>
       </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176">
+      <c r="J176" s="1">
+        <v>0</v>
+      </c>
+      <c r="K176" s="1">
         <v>0.11</v>
       </c>
     </row>
@@ -8565,31 +8576,31 @@
       <c r="A177" t="s">
         <v>185</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>1.5174799999999999</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <v>12.86</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="1">
         <v>3.56</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="1">
         <v>1.27</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="1">
         <v>73.209999999999994</v>
       </c>
-      <c r="H177">
+      <c r="H177" s="1">
         <v>0.54</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
+      <c r="J177" s="1">
+        <v>0</v>
+      </c>
+      <c r="K177" s="1">
         <v>0.17</v>
       </c>
     </row>
@@ -8597,31 +8608,31 @@
       <c r="A178" t="s">
         <v>186</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>1.51613</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="1">
         <v>13.88</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="1">
         <v>1.78</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="1">
         <v>1.79</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="1">
         <v>73.099999999999994</v>
       </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178">
+      <c r="H178" s="1">
+        <v>0</v>
+      </c>
+      <c r="I178" s="1">
         <v>8.67</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="1">
         <v>0.76</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8629,31 +8640,31 @@
       <c r="A179" t="s">
         <v>187</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>1.51763</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="1">
         <v>12.61</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="1">
         <v>3.59</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="1">
         <v>1.31</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="1">
         <v>73.290000000000006</v>
       </c>
-      <c r="H179">
+      <c r="H179" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="1">
         <v>8.5</v>
       </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
+      <c r="J179" s="1">
+        <v>0</v>
+      </c>
+      <c r="K179" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8661,31 +8672,31 @@
       <c r="A180" t="s">
         <v>188</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>1.53393</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="1">
         <v>12.3</v>
       </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
         <v>1</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="1">
         <v>70.16</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="1">
         <v>0.12</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="1">
         <v>16.190000000000001</v>
       </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180">
+      <c r="J180" s="1">
+        <v>0</v>
+      </c>
+      <c r="K180" s="1">
         <v>0.24</v>
       </c>
     </row>
@@ -8693,31 +8704,31 @@
       <c r="A181" t="s">
         <v>189</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>1.5217700000000001</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="1">
         <v>13.75</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="1">
         <v>1.01</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="1">
         <v>1.36</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="1">
         <v>72.19</v>
       </c>
-      <c r="H181">
+      <c r="H181" s="1">
         <v>0.33</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="1">
         <v>11.14</v>
       </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="K181">
+      <c r="J181" s="1">
+        <v>0</v>
+      </c>
+      <c r="K181" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8725,31 +8736,31 @@
       <c r="A182" t="s">
         <v>190</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>1.5167299999999999</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <v>13.3</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="1">
         <v>3.64</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="1">
         <v>1.53</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="1">
         <v>72.53</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="1">
         <v>0.65</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="1">
         <v>8.0299999999999994</v>
       </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182">
+      <c r="J182" s="1">
+        <v>0</v>
+      </c>
+      <c r="K182" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -8757,31 +8768,31 @@
       <c r="A183" t="s">
         <v>191</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>1.51831</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <v>14.39</v>
       </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1">
         <v>1.82</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="1">
         <v>72.86</v>
       </c>
-      <c r="H183">
+      <c r="H183" s="1">
         <v>1.41</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="1">
         <v>6.47</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="1">
         <v>2.88</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8789,31 +8800,31 @@
       <c r="A184" t="s">
         <v>192</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>1.5202</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="1">
         <v>13.98</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="1">
         <v>1.35</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="1">
         <v>1.63</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="1">
         <v>71.760000000000005</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="1">
         <v>0.39</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="1">
         <v>10.56</v>
       </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184">
+      <c r="J184" s="1">
+        <v>0</v>
+      </c>
+      <c r="K184" s="1">
         <v>0.18</v>
       </c>
     </row>
@@ -8821,31 +8832,31 @@
       <c r="A185" t="s">
         <v>115</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>1.52213</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="1">
         <v>14.21</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="1">
         <v>3.82</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="1">
         <v>0.47</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="1">
         <v>71.77</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="1">
         <v>0.11</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="1">
         <v>9.57</v>
       </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185">
+      <c r="J185" s="1">
+        <v>0</v>
+      </c>
+      <c r="K185" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8853,31 +8864,31 @@
       <c r="A186" t="s">
         <v>193</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>1.51756</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="1">
         <v>13.15</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="1">
         <v>3.61</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="1">
         <v>1.05</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="1">
         <v>73.239999999999995</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="1">
         <v>8.24</v>
       </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-      <c r="K186">
+      <c r="J186" s="1">
+        <v>0</v>
+      </c>
+      <c r="K186" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8885,31 +8896,31 @@
       <c r="A187" t="s">
         <v>194</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>1.51115</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="1">
         <v>17.38</v>
       </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
+      <c r="E187" s="1">
+        <v>0</v>
+      </c>
+      <c r="F187" s="1">
         <v>0.34</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="1">
         <v>75.41</v>
       </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="I187">
+      <c r="H187" s="1">
+        <v>0</v>
+      </c>
+      <c r="I187" s="1">
         <v>6.65</v>
       </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187">
+      <c r="J187" s="1">
+        <v>0</v>
+      </c>
+      <c r="K187" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8917,31 +8928,31 @@
       <c r="A188" t="s">
         <v>195</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>1.52119</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="1">
         <v>12.97</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="1">
         <v>0.33</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="1">
         <v>1.51</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="1">
         <v>73.39</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="1">
         <v>0.13</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="1">
         <v>11.27</v>
       </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-      <c r="K188">
+      <c r="J188" s="1">
+        <v>0</v>
+      </c>
+      <c r="K188" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -8949,31 +8960,31 @@
       <c r="A189" t="s">
         <v>196</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>1.5159</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="1">
         <v>13.24</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="1">
         <v>3.34</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="1">
         <v>1.47</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="1">
         <v>73.099999999999994</v>
       </c>
-      <c r="H189">
+      <c r="H189" s="1">
         <v>0.39</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="1">
         <v>8.2200000000000006</v>
       </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-      <c r="K189">
+      <c r="J189" s="1">
+        <v>0</v>
+      </c>
+      <c r="K189" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8981,31 +8992,31 @@
       <c r="A190" t="s">
         <v>197</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>1.5189999999999999</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="1">
         <v>13.49</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="1">
         <v>3.48</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="1">
         <v>1.35</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="1">
         <v>71.95</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="1">
         <v>9</v>
       </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-      <c r="K190">
+      <c r="J190" s="1">
+        <v>0</v>
+      </c>
+      <c r="K190" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9013,31 +9024,31 @@
       <c r="A191" t="s">
         <v>198</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>1.51667</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="1">
         <v>12.94</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="1">
         <v>3.61</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="1">
         <v>1.26</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="1">
         <v>72.75</v>
       </c>
-      <c r="H191">
+      <c r="H191" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="1">
         <v>8.6</v>
       </c>
-      <c r="J191">
-        <v>0</v>
-      </c>
-      <c r="K191">
+      <c r="J191" s="1">
+        <v>0</v>
+      </c>
+      <c r="K191" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9045,31 +9056,31 @@
       <c r="A192" t="s">
         <v>199</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>1.51783</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="1">
         <v>12.69</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="1">
         <v>3.54</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="1">
         <v>1.34</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="1">
         <v>72.95</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="1">
         <v>8.75</v>
       </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-      <c r="K192">
+      <c r="J192" s="1">
+        <v>0</v>
+      </c>
+      <c r="K192" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9077,31 +9088,31 @@
       <c r="A193" t="s">
         <v>200</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>1.5184599999999999</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="1">
         <v>13.41</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="1">
         <v>3.89</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="1">
         <v>1.33</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="1">
         <v>72.38</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="1">
         <v>0.51</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="1">
         <v>8.2799999999999994</v>
       </c>
-      <c r="J193">
-        <v>0</v>
-      </c>
-      <c r="K193">
+      <c r="J193" s="1">
+        <v>0</v>
+      </c>
+      <c r="K193" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9109,31 +9120,31 @@
       <c r="A194" t="s">
         <v>201</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>1.51623</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="1">
         <v>14.14</v>
       </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
+      <c r="E194" s="1">
+        <v>0</v>
+      </c>
+      <c r="F194" s="1">
         <v>2.88</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="1">
         <v>72.61</v>
       </c>
-      <c r="H194">
+      <c r="H194" s="1">
         <v>0.08</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="1">
         <v>9.18</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="1">
         <v>1.06</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9141,31 +9152,31 @@
       <c r="A195" t="s">
         <v>202</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>1.51569</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <v>13.24</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="1">
         <v>3.49</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="1">
         <v>1.47</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="1">
         <v>73.25</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="1">
         <v>0.38</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="1">
         <v>8.0299999999999994</v>
       </c>
-      <c r="J195">
-        <v>0</v>
-      </c>
-      <c r="K195">
+      <c r="J195" s="1">
+        <v>0</v>
+      </c>
+      <c r="K195" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9173,31 +9184,31 @@
       <c r="A196" t="s">
         <v>203</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>1.5206500000000001</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="1">
         <v>14.36</v>
       </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="F196">
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
         <v>2.02</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="1">
         <v>73.42</v>
       </c>
-      <c r="H196">
-        <v>0</v>
-      </c>
-      <c r="I196">
+      <c r="H196" s="1">
+        <v>0</v>
+      </c>
+      <c r="I196" s="1">
         <v>8.44</v>
       </c>
-      <c r="J196">
+      <c r="J196" s="1">
         <v>1.64</v>
       </c>
-      <c r="K196">
+      <c r="K196" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9205,31 +9216,31 @@
       <c r="A197" t="s">
         <v>204</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>1.51905</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="1">
         <v>14</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="1">
         <v>2.39</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="1">
         <v>1.56</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="1">
         <v>72.37</v>
       </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-      <c r="I197">
+      <c r="H197" s="1">
+        <v>0</v>
+      </c>
+      <c r="I197" s="1">
         <v>9.57</v>
       </c>
-      <c r="J197">
-        <v>0</v>
-      </c>
-      <c r="K197">
+      <c r="J197" s="1">
+        <v>0</v>
+      </c>
+      <c r="K197" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9237,31 +9248,31 @@
       <c r="A198" t="s">
         <v>205</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>1.5199400000000001</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="1">
         <v>13.27</v>
       </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
+      <c r="E198" s="1">
+        <v>0</v>
+      </c>
+      <c r="F198" s="1">
         <v>1.76</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="1">
         <v>73.03</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="1">
         <v>0.47</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="1">
         <v>11.32</v>
       </c>
-      <c r="J198">
-        <v>0</v>
-      </c>
-      <c r="K198">
+      <c r="J198" s="1">
+        <v>0</v>
+      </c>
+      <c r="K198" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9269,31 +9280,31 @@
       <c r="A199" t="s">
         <v>206</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>1.52172</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="1">
         <v>13.51</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="1">
         <v>3.86</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="1">
         <v>0.88</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="1">
         <v>71.790000000000006</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="1">
         <v>0.23</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="1">
         <v>9.5399999999999991</v>
       </c>
-      <c r="J199">
-        <v>0</v>
-      </c>
-      <c r="K199">
+      <c r="J199" s="1">
+        <v>0</v>
+      </c>
+      <c r="K199" s="1">
         <v>0.11</v>
       </c>
     </row>
@@ -9301,31 +9312,31 @@
       <c r="A200" t="s">
         <v>207</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>1.51753</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="1">
         <v>12.57</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="1">
         <v>3.47</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="1">
         <v>1.38</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="1">
         <v>73.39</v>
       </c>
-      <c r="H200">
+      <c r="H200" s="1">
         <v>0.6</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="1">
         <v>8.5500000000000007</v>
       </c>
-      <c r="J200">
-        <v>0</v>
-      </c>
-      <c r="K200">
+      <c r="J200" s="1">
+        <v>0</v>
+      </c>
+      <c r="K200" s="1">
         <v>0.06</v>
       </c>
     </row>
@@ -9333,31 +9344,31 @@
       <c r="A201" t="s">
         <v>208</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>1.5217700000000001</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="1">
         <v>13.2</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="1">
         <v>3.68</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="1">
         <v>72.75</v>
       </c>
-      <c r="H201">
+      <c r="H201" s="1">
         <v>0.54</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="1">
         <v>8.52</v>
       </c>
-      <c r="J201">
-        <v>0</v>
-      </c>
-      <c r="K201">
+      <c r="J201" s="1">
+        <v>0</v>
+      </c>
+      <c r="K201" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9365,31 +9376,31 @@
       <c r="A202" t="s">
         <v>209</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>1.5129900000000001</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="1">
         <v>14.4</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="1">
         <v>1.74</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="1">
         <v>1.54</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="1">
         <v>74.55</v>
       </c>
-      <c r="H202">
-        <v>0</v>
-      </c>
-      <c r="I202">
+      <c r="H202" s="1">
+        <v>0</v>
+      </c>
+      <c r="I202" s="1">
         <v>7.59</v>
       </c>
-      <c r="J202">
-        <v>0</v>
-      </c>
-      <c r="K202">
+      <c r="J202" s="1">
+        <v>0</v>
+      </c>
+      <c r="K202" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9397,31 +9408,31 @@
       <c r="A203" t="s">
         <v>210</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>1.5215099999999999</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="1">
         <v>11.03</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="1">
         <v>1.71</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="1">
         <v>1.56</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="1">
         <v>73.44</v>
       </c>
-      <c r="H203">
+      <c r="H203" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="1">
         <v>11.62</v>
       </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
-      <c r="K203">
+      <c r="J203" s="1">
+        <v>0</v>
+      </c>
+      <c r="K203" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9429,31 +9440,31 @@
       <c r="A204" t="s">
         <v>211</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>1.5175000000000001</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="1">
         <v>12.82</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="1">
         <v>3.55</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="1">
         <v>1.49</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="1">
         <v>72.75</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="1">
         <v>0.54</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="1">
         <v>8.52</v>
       </c>
-      <c r="J204">
-        <v>0</v>
-      </c>
-      <c r="K204">
+      <c r="J204" s="1">
+        <v>0</v>
+      </c>
+      <c r="K204" s="1">
         <v>0.19</v>
       </c>
     </row>
@@ -9461,31 +9472,31 @@
       <c r="A205" t="s">
         <v>212</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>1.5176799999999999</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="1">
         <v>12.65</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="1">
         <v>3.56</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="1">
         <v>1.3</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="1">
         <v>73.08</v>
       </c>
-      <c r="H205">
+      <c r="H205" s="1">
         <v>0.61</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="1">
         <v>8.69</v>
       </c>
-      <c r="J205">
-        <v>0</v>
-      </c>
-      <c r="K205">
+      <c r="J205" s="1">
+        <v>0</v>
+      </c>
+      <c r="K205" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -9493,31 +9504,31 @@
       <c r="A206" t="s">
         <v>213</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>1.51918</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="1">
         <v>14.04</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="1">
         <v>3.58</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="1">
         <v>1.37</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="1">
         <v>72.08</v>
       </c>
-      <c r="H206">
+      <c r="H206" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J206">
-        <v>0</v>
-      </c>
-      <c r="K206">
+      <c r="J206" s="1">
+        <v>0</v>
+      </c>
+      <c r="K206" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9525,31 +9536,31 @@
       <c r="A207" t="s">
         <v>214</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>1.5165299999999999</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="1">
         <v>11.95</v>
       </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-      <c r="F207">
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1">
         <v>1.19</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="1">
         <v>75.180000000000007</v>
       </c>
-      <c r="H207">
+      <c r="H207" s="1">
         <v>2.7</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="1">
         <v>8.93</v>
       </c>
-      <c r="J207">
-        <v>0</v>
-      </c>
-      <c r="K207">
+      <c r="J207" s="1">
+        <v>0</v>
+      </c>
+      <c r="K207" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9557,31 +9568,31 @@
       <c r="A208" t="s">
         <v>215</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>1.52196</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="1">
         <v>14.36</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="1">
         <v>3.85</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="1">
         <v>0.89</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="1">
         <v>71.36</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="1">
         <v>0.15</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="1">
         <v>9.15</v>
       </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
-      <c r="K208">
+      <c r="J208" s="1">
+        <v>0</v>
+      </c>
+      <c r="K208" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9589,31 +9600,31 @@
       <c r="A209" t="s">
         <v>216</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>1.51709</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="1">
         <v>13</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="1">
         <v>3.47</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="1">
         <v>1.79</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="1">
         <v>72.72</v>
       </c>
-      <c r="H209">
+      <c r="H209" s="1">
         <v>0.66</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="1">
         <v>8.18</v>
       </c>
-      <c r="J209">
-        <v>0</v>
-      </c>
-      <c r="K209">
+      <c r="J209" s="1">
+        <v>0</v>
+      </c>
+      <c r="K209" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9621,31 +9632,31 @@
       <c r="A210" t="s">
         <v>217</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>1.51694</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="1">
         <v>12.86</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="1">
         <v>3.58</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="1">
         <v>1.31</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="1">
         <v>72.61</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="1">
         <v>0.61</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="1">
         <v>8.7899999999999991</v>
       </c>
-      <c r="J210">
-        <v>0</v>
-      </c>
-      <c r="K210">
+      <c r="J210" s="1">
+        <v>0</v>
+      </c>
+      <c r="K210" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9653,31 +9664,31 @@
       <c r="A211" t="s">
         <v>218</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>1.52152</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="1">
         <v>13.12</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="1">
         <v>3.58</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="1">
         <v>0.9</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="1">
         <v>72.2</v>
       </c>
-      <c r="H211">
+      <c r="H211" s="1">
         <v>0.23</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="1">
         <v>9.82</v>
       </c>
-      <c r="J211">
-        <v>0</v>
-      </c>
-      <c r="K211">
+      <c r="J211" s="1">
+        <v>0</v>
+      </c>
+      <c r="K211" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -9685,31 +9696,31 @@
       <c r="A212" t="s">
         <v>219</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>1.5184800000000001</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="1">
         <v>13.64</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="1">
         <v>3.87</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="1">
         <v>1.27</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="1">
         <v>71.959999999999994</v>
       </c>
-      <c r="H212">
+      <c r="H212" s="1">
         <v>0.54</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="1">
         <v>8.32</v>
       </c>
-      <c r="J212">
-        <v>0</v>
-      </c>
-      <c r="K212">
+      <c r="J212" s="1">
+        <v>0</v>
+      </c>
+      <c r="K212" s="1">
         <v>0.32</v>
       </c>
     </row>
@@ -9717,31 +9728,31 @@
       <c r="A213" t="s">
         <v>220</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>1.5178400000000001</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="1">
         <v>12.68</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="1">
         <v>3.67</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="1">
         <v>73.11</v>
       </c>
-      <c r="H213">
+      <c r="H213" s="1">
         <v>0.61</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J213">
-        <v>0</v>
-      </c>
-      <c r="K213">
+      <c r="J213" s="1">
+        <v>0</v>
+      </c>
+      <c r="K213" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9749,31 +9760,31 @@
       <c r="A214" t="s">
         <v>221</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>1.51841</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="1">
         <v>12.93</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="1">
         <v>3.74</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="1">
         <v>72.28</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="1">
         <v>0.64</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="1">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
-      <c r="K214">
+      <c r="J214" s="1">
+        <v>0</v>
+      </c>
+      <c r="K214" s="1">
         <v>0.22</v>
       </c>
     </row>
@@ -9781,36 +9792,36 @@
       <c r="A215" t="s">
         <v>222</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>1.5132099999999999</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="1">
         <v>13</v>
       </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-      <c r="F215">
+      <c r="E215" s="1">
+        <v>0</v>
+      </c>
+      <c r="F215" s="1">
         <v>3.02</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="1">
         <v>70.7</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="1">
         <v>6.21</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="1">
         <v>6.93</v>
       </c>
-      <c r="J215">
-        <v>0</v>
-      </c>
-      <c r="K215">
+      <c r="J215" s="1">
+        <v>0</v>
+      </c>
+      <c r="K215" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="5" t="s">
         <v>223</v>
       </c>
       <c r="C216" s="1">
@@ -9851,249 +9862,249 @@
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B217" s="5">
+      <c r="B217" s="6">
         <v>0.25</v>
       </c>
       <c r="C217" s="1">
-        <f>QUARTILE(C2:C215,1)</f>
+        <f t="shared" ref="C217:K217" si="1">QUARTILE(C2:C215,1)</f>
         <v>1.5165225</v>
       </c>
       <c r="D217" s="1">
-        <f>QUARTILE(D2:D215,1)</f>
+        <f t="shared" si="1"/>
         <v>12.907500000000001</v>
       </c>
       <c r="E217" s="1">
-        <f>QUARTILE(E2:E215,1)</f>
+        <f t="shared" si="1"/>
         <v>2.1149999999999998</v>
       </c>
       <c r="F217" s="1">
-        <f>QUARTILE(F2:F215,1)</f>
+        <f t="shared" si="1"/>
         <v>1.19</v>
       </c>
       <c r="G217" s="1">
-        <f>QUARTILE(G2:G215,1)</f>
+        <f t="shared" si="1"/>
         <v>72.28</v>
       </c>
       <c r="H217" s="1">
-        <f>QUARTILE(H2:H215,1)</f>
+        <f t="shared" si="1"/>
         <v>0.1225</v>
       </c>
       <c r="I217" s="1">
-        <f>QUARTILE(I2:I215,1)</f>
+        <f t="shared" si="1"/>
         <v>8.24</v>
       </c>
       <c r="J217" s="1">
-        <f>QUARTILE(J2:J215,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K217" s="1">
-        <f>QUARTILE(K2:K215,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B218" s="5">
+      <c r="B218" s="6">
         <v>0.5</v>
       </c>
       <c r="C218" s="1">
-        <f>QUARTILE(C3:C216,2)</f>
+        <f t="shared" ref="C218:K218" si="2">QUARTILE(C3:C216,2)</f>
         <v>1.5176799999999999</v>
       </c>
       <c r="D218" s="1">
-        <f>QUARTILE(D3:D216,2)</f>
+        <f t="shared" si="2"/>
         <v>13.3</v>
       </c>
       <c r="E218" s="1">
-        <f>QUARTILE(E3:E216,2)</f>
+        <f t="shared" si="2"/>
         <v>3.48</v>
       </c>
       <c r="F218" s="1">
-        <f>QUARTILE(F3:F216,2)</f>
+        <f t="shared" si="2"/>
         <v>1.36</v>
       </c>
       <c r="G218" s="1">
-        <f>QUARTILE(G3:G216,2)</f>
+        <f t="shared" si="2"/>
         <v>72.790000000000006</v>
       </c>
       <c r="H218" s="1">
-        <f>QUARTILE(H3:H216,2)</f>
+        <f t="shared" si="2"/>
         <v>0.55500000000000005</v>
       </c>
       <c r="I218" s="1">
-        <f>QUARTILE(I3:I216,2)</f>
+        <f t="shared" si="2"/>
         <v>8.6</v>
       </c>
       <c r="J218" s="1">
-        <f>QUARTILE(J3:J216,2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K218" s="1">
-        <f>QUARTILE(K3:K216,2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B219" s="5">
+      <c r="B219" s="6">
         <v>0.75</v>
       </c>
       <c r="C219" s="1">
-        <f>QUARTILE(C4:C217,3)</f>
+        <f t="shared" ref="C219:K219" si="3">QUARTILE(C4:C217,3)</f>
         <v>1.5191399999999999</v>
       </c>
       <c r="D219" s="1">
-        <f>QUARTILE(D4:D217,3)</f>
+        <f t="shared" si="3"/>
         <v>13.824999999999999</v>
       </c>
       <c r="E219" s="1">
-        <f>QUARTILE(E4:E217,3)</f>
+        <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
       <c r="F219" s="1">
-        <f>QUARTILE(F4:F217,3)</f>
+        <f t="shared" si="3"/>
         <v>1.62</v>
       </c>
       <c r="G219" s="1">
-        <f>QUARTILE(G4:G217,3)</f>
+        <f t="shared" si="3"/>
         <v>73.087500000000006</v>
       </c>
       <c r="H219" s="1">
-        <f>QUARTILE(H4:H217,3)</f>
+        <f t="shared" si="3"/>
         <v>0.61</v>
       </c>
       <c r="I219" s="1">
-        <f>QUARTILE(I4:I217,3)</f>
+        <f t="shared" si="3"/>
         <v>9.1475000000000009</v>
       </c>
       <c r="J219" s="1">
-        <f>QUARTILE(J4:J217,3)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K219" s="1">
-        <f>QUARTILE(K4:K217,3)</f>
+        <f t="shared" si="3"/>
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="5" t="s">
         <v>224</v>
       </c>
       <c r="C220" s="1">
-        <f>MAX(C2:C215)</f>
+        <f t="shared" ref="C220:K220" si="4">MAX(C2:C215)</f>
         <v>1.53393</v>
       </c>
       <c r="D220" s="1">
-        <f>MAX(D2:D215)</f>
+        <f t="shared" si="4"/>
         <v>17.38</v>
       </c>
       <c r="E220" s="1">
-        <f>MAX(E2:E215)</f>
+        <f t="shared" si="4"/>
         <v>4.49</v>
       </c>
       <c r="F220" s="1">
-        <f>MAX(F2:F215)</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="G220" s="1">
-        <f>MAX(G2:G215)</f>
+        <f t="shared" si="4"/>
         <v>75.41</v>
       </c>
       <c r="H220" s="1">
-        <f>MAX(H2:H215)</f>
+        <f t="shared" si="4"/>
         <v>6.21</v>
       </c>
       <c r="I220" s="1">
-        <f>MAX(I2:I215)</f>
+        <f t="shared" si="4"/>
         <v>16.190000000000001</v>
       </c>
       <c r="J220" s="1">
-        <f>MAX(J2:J215)</f>
+        <f t="shared" si="4"/>
         <v>3.15</v>
       </c>
       <c r="K220" s="1">
-        <f>MAX(K2:K215)</f>
+        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="5" t="s">
         <v>225</v>
       </c>
       <c r="C221" s="1">
-        <f>_xlfn.STDEV.P(C2:C215)</f>
+        <f t="shared" ref="C221:K221" si="5">_xlfn.STDEV.P(C2:C215)</f>
         <v>3.0297599548275021E-3</v>
       </c>
       <c r="D221" s="1">
-        <f>_xlfn.STDEV.P(D2:D215)</f>
+        <f t="shared" si="5"/>
         <v>0.81469336934283676</v>
       </c>
       <c r="E221" s="1">
-        <f>_xlfn.STDEV.P(E2:E215)</f>
+        <f t="shared" si="5"/>
         <v>1.4390337868112197</v>
       </c>
       <c r="F221" s="1">
-        <f>_xlfn.STDEV.P(F2:F215)</f>
+        <f t="shared" si="5"/>
         <v>0.49810176178908128</v>
       </c>
       <c r="G221" s="1">
-        <f>_xlfn.STDEV.P(G2:G215)</f>
+        <f t="shared" si="5"/>
         <v>0.7727339892550712</v>
       </c>
       <c r="H221" s="1">
-        <f>_xlfn.STDEV.P(H2:H215)</f>
+        <f t="shared" si="5"/>
         <v>0.65066624850923249</v>
       </c>
       <c r="I221" s="1">
-        <f>_xlfn.STDEV.P(I2:I215)</f>
+        <f t="shared" si="5"/>
         <v>1.4198244687168187</v>
       </c>
       <c r="J221" s="1">
-        <f>_xlfn.STDEV.P(J2:J215)</f>
+        <f t="shared" si="5"/>
         <v>0.49605617301709465</v>
       </c>
       <c r="K221" s="1">
-        <f>_xlfn.STDEV.P(K2:K215)</f>
+        <f t="shared" si="5"/>
         <v>9.7210773539229592E-2</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4"/>
+      <c r="K223" s="4"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C224" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D224" s="3" t="s">
+      <c r="C224" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="E224" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F224" s="3" t="s">
+      <c r="F224" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G224" s="3" t="s">
+      <c r="G224" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H224" s="3" t="s">
+      <c r="H224" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I224" s="3" t="s">
+      <c r="I224" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J224" s="3" t="s">
+      <c r="J224" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K224" s="3" t="s">
+      <c r="K224" s="2" t="s">
         <v>8</v>
       </c>
     </row>
